--- a/html.xlsx
+++ b/html.xlsx
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/html.xlsx
+++ b/html.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>jelentés</t>
   </si>
@@ -141,9 +141,6 @@
     <t>&lt;title&gt;</t>
   </si>
   <si>
-    <t>színek!!!!!</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>font-style</t>
   </si>
   <si>
-    <t>betű-stílus</t>
-  </si>
-  <si>
     <t>font-variant</t>
   </si>
   <si>
@@ -196,18 +190,155 @@
   </si>
   <si>
     <t>betű-kiterjedés</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <t>text-aline</t>
+  </si>
+  <si>
+    <t>text-decoration</t>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line-height </t>
+  </si>
+  <si>
+    <t>vertical-align</t>
+  </si>
+  <si>
+    <t>white-space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szöveg tördelése és elválasztása </t>
+  </si>
+  <si>
+    <t>berű-stílus</t>
+  </si>
+  <si>
+    <t>behúzás</t>
+  </si>
+  <si>
+    <t>helymeghatározás(,sorköz)</t>
+  </si>
+  <si>
+    <t>dekorcsíkok</t>
+  </si>
+  <si>
+    <t>kis-nagybetű</t>
+  </si>
+  <si>
+    <t>sormagasság</t>
+  </si>
+  <si>
+    <t>függőlegesigazítás</t>
+  </si>
+  <si>
+    <t>hexa</t>
+  </si>
+  <si>
+    <t>rövid hexa</t>
+  </si>
+  <si>
+    <t>decimális</t>
+  </si>
+  <si>
+    <t>százalék</t>
+  </si>
+  <si>
+    <t>sRGBév</t>
+  </si>
+  <si>
+    <t>vörös</t>
+  </si>
+  <si>
+    <t>(100%,0%,0%)</t>
+  </si>
+  <si>
+    <t>(255,0,0)</t>
+  </si>
+  <si>
+    <t>(#f00)</t>
+  </si>
+  <si>
+    <t>(#ff0000)</t>
+  </si>
+  <si>
+    <t>rgb(vörös)</t>
+  </si>
+  <si>
+    <t>HLS</t>
+  </si>
+  <si>
+    <t>(szin,telítettség,világosság)</t>
+  </si>
+  <si>
+    <t>(0,0%,0%)</t>
+  </si>
+  <si>
+    <t>condensed</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>expanded</t>
+  </si>
+  <si>
+    <t>keskeny</t>
+  </si>
+  <si>
+    <t>közepes</t>
+  </si>
+  <si>
+    <t>széles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,12 +362,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,226 +670,371 @@
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4"/>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="4"/>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="4"/>
       <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="4"/>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="4"/>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D1:D21"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/html.xlsx
+++ b/html.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>jelentés</t>
   </si>
@@ -295,13 +295,16 @@
   </si>
   <si>
     <t>széles</t>
+  </si>
+  <si>
+    <t>https://zealdocs.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +344,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,19 +370,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,8 +385,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,18 +692,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H1" t="s">
@@ -706,14 +720,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="7"/>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="7"/>
       <c r="H2" t="s">
         <v>73</v>
       </c>
@@ -728,14 +742,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="7"/>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="7"/>
       <c r="H3" t="s">
         <v>74</v>
       </c>
@@ -750,14 +764,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="7"/>
       <c r="H4" t="s">
         <v>75</v>
       </c>
@@ -772,14 +786,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="7"/>
       <c r="H5" t="s">
         <v>76</v>
       </c>
@@ -794,20 +808,20 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="7"/>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -816,14 +830,14 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="7"/>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>85</v>
       </c>
@@ -835,7 +849,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>44</v>
       </c>
@@ -850,7 +864,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>46</v>
       </c>
@@ -871,7 +885,7 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>47</v>
       </c>
@@ -892,7 +906,7 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="7"/>
       <c r="E11" t="s">
         <v>49</v>
       </c>
@@ -913,7 +927,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="7"/>
       <c r="E12" t="s">
         <v>51</v>
       </c>
@@ -928,7 +942,7 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>53</v>
       </c>
@@ -943,12 +957,15 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -958,7 +975,7 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>57</v>
       </c>
@@ -973,7 +990,7 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="7"/>
       <c r="E16" t="s">
         <v>58</v>
       </c>
@@ -982,8 +999,8 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F17" t="s">
@@ -991,8 +1008,8 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F18" t="s">
@@ -1000,8 +1017,8 @@
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F19" t="s">
@@ -1009,8 +1026,8 @@
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F20" t="s">
@@ -1018,8 +1035,8 @@
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1034,7 +1051,10 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>